--- a/prediction_output.xlsx
+++ b/prediction_output.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,6 +596,23 @@
         <v>14.6963090604377</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>13.94887734774724</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
